--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>CA-JK6LDUQH</t>
+  </si>
+  <si>
+    <t>CA-TJW44LFD</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>CA-TJW44LFD</t>
+  </si>
+  <si>
+    <t>CA-RRHVHQ3U</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -125,6 +125,15 @@
   </si>
   <si>
     <t>CA-RRHVHQ3U</t>
+  </si>
+  <si>
+    <t>CA-ITFVC8GN</t>
+  </si>
+  <si>
+    <t>CA-LT503RGJ</t>
+  </si>
+  <si>
+    <t>CA-3FZASFHT</t>
   </si>
 </sst>
 </file>
@@ -549,7 +558,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -134,6 +134,24 @@
   </si>
   <si>
     <t>CA-3FZASFHT</t>
+  </si>
+  <si>
+    <t>CA-0GPC0BKS</t>
+  </si>
+  <si>
+    <t>CA-G42A2DPI</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>CA-OT1576VS</t>
+  </si>
+  <si>
+    <t>CA-B1BZ60IM</t>
+  </si>
+  <si>
+    <t>CA-YV0L5HBH</t>
   </si>
 </sst>
 </file>
@@ -558,7 +576,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -631,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -152,6 +152,30 @@
   </si>
   <si>
     <t>CA-YV0L5HBH</t>
+  </si>
+  <si>
+    <t>CA-VHR3K5N1</t>
+  </si>
+  <si>
+    <t>CA-G7PDYCLX</t>
+  </si>
+  <si>
+    <t>CA-7AH5Z2PZ</t>
+  </si>
+  <si>
+    <t>CA-ATEBGOC5</t>
+  </si>
+  <si>
+    <t>CA-704YI37H</t>
+  </si>
+  <si>
+    <t>CA-9BUIKRV4</t>
+  </si>
+  <si>
+    <t>CA-IULE2W7V</t>
+  </si>
+  <si>
+    <t>CA-II7V08WU</t>
   </si>
 </sst>
 </file>
@@ -576,7 +600,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -649,7 +673,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>CA-II7V08WU</t>
+  </si>
+  <si>
+    <t>CA-ZMNVET9H</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>CA-ZMNVET9H</t>
+  </si>
+  <si>
+    <t>CA-XBUXCVRT</t>
+  </si>
+  <si>
+    <t>CA-KPJ32ZF7</t>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TrainingTestNG\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F838C5A6-47C7-4EE6-90B9-2EC72EE17E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464EE941-3B88-4BAD-BEB2-CAA94BB8E2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="4200" windowWidth="21555" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="438">
   <si>
     <t>id</t>
   </si>
@@ -112,79 +112,1234 @@
     <t>cgx</t>
   </si>
   <si>
-    <t>CA-BO7XJLLM</t>
-  </si>
-  <si>
-    <t>1FT5RD6GH91</t>
-  </si>
-  <si>
-    <t>CA-JK6LDUQH</t>
-  </si>
-  <si>
-    <t>CA-TJW44LFD</t>
-  </si>
-  <si>
-    <t>CA-RRHVHQ3U</t>
-  </si>
-  <si>
-    <t>CA-ITFVC8GN</t>
-  </si>
-  <si>
-    <t>CA-LT503RGJ</t>
-  </si>
-  <si>
-    <t>CA-3FZASFHT</t>
-  </si>
-  <si>
-    <t>CA-0GPC0BKS</t>
-  </si>
-  <si>
-    <t>CA-G42A2DPI</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>CA-OT1576VS</t>
-  </si>
-  <si>
-    <t>CA-B1BZ60IM</t>
-  </si>
-  <si>
-    <t>CA-YV0L5HBH</t>
-  </si>
-  <si>
-    <t>CA-VHR3K5N1</t>
-  </si>
-  <si>
-    <t>CA-G7PDYCLX</t>
-  </si>
-  <si>
-    <t>CA-7AH5Z2PZ</t>
-  </si>
-  <si>
-    <t>CA-ATEBGOC5</t>
-  </si>
-  <si>
-    <t>CA-704YI37H</t>
-  </si>
-  <si>
-    <t>CA-9BUIKRV4</t>
-  </si>
-  <si>
-    <t>CA-IULE2W7V</t>
-  </si>
-  <si>
-    <t>CA-II7V08WU</t>
-  </si>
-  <si>
-    <t>CA-ZMNVET9H</t>
-  </si>
-  <si>
-    <t>CA-XBUXCVRT</t>
-  </si>
-  <si>
-    <t>CA-KPJ32ZF7</t>
+    <t>CA-105HD3KX</t>
+  </si>
+  <si>
+    <t>2FT5RD6GH91</t>
+  </si>
+  <si>
+    <t>CA-IW7WF8NQ</t>
+  </si>
+  <si>
+    <t>CA-CH47Q9GU</t>
+  </si>
+  <si>
+    <t>CA-ARXGFU1V</t>
+  </si>
+  <si>
+    <t>CA-1HQ9TGSR</t>
+  </si>
+  <si>
+    <t>CA-KX1T0O19</t>
+  </si>
+  <si>
+    <t>CA-EWV7F65C</t>
+  </si>
+  <si>
+    <t>CA-87KNBOV4</t>
+  </si>
+  <si>
+    <t>CA-4JGZZ57O</t>
+  </si>
+  <si>
+    <t>CA-ASQA68I0</t>
+  </si>
+  <si>
+    <t>CA-FRWKZBWN</t>
+  </si>
+  <si>
+    <t>CA-J52N6IEJ</t>
+  </si>
+  <si>
+    <t>CA-G8BF2B2Q</t>
+  </si>
+  <si>
+    <t>CA-V0WR22T9</t>
+  </si>
+  <si>
+    <t>CA-ICQJBZ23</t>
+  </si>
+  <si>
+    <t>CA-RIH51PM0</t>
+  </si>
+  <si>
+    <t>CA-XVJFSVMP</t>
+  </si>
+  <si>
+    <t>CA-ZNAGZ6FJ</t>
+  </si>
+  <si>
+    <t>CA-HCDCYJJS</t>
+  </si>
+  <si>
+    <t>CA-0FFK3JDI</t>
+  </si>
+  <si>
+    <t>CA-DKH4E0W5</t>
+  </si>
+  <si>
+    <t>CA-PS8YU2I5</t>
+  </si>
+  <si>
+    <t>CA-YOUAC1XN</t>
+  </si>
+  <si>
+    <t>CA-17G341VQ</t>
+  </si>
+  <si>
+    <t>CA-GVMDUU80</t>
+  </si>
+  <si>
+    <t>CA-Q6H6UNPJ</t>
+  </si>
+  <si>
+    <t>CA-VE2R13GF</t>
+  </si>
+  <si>
+    <t>CA-9M9E5YUV</t>
+  </si>
+  <si>
+    <t>CA-WTQSXAFM</t>
+  </si>
+  <si>
+    <t>CA-H4HF339C</t>
+  </si>
+  <si>
+    <t>CA-JTNBO0N9</t>
+  </si>
+  <si>
+    <t>CA-4ZTN4JUL</t>
+  </si>
+  <si>
+    <t>CA-1IN4VSGH</t>
+  </si>
+  <si>
+    <t>CA-2A5WL1DF</t>
+  </si>
+  <si>
+    <t>CA-K7Y392P8</t>
+  </si>
+  <si>
+    <t>CA-4QCV98KS</t>
+  </si>
+  <si>
+    <t>CA-6742TYWO</t>
+  </si>
+  <si>
+    <t>CA-MDUH94LU</t>
+  </si>
+  <si>
+    <t>CA-CNDDBTH2</t>
+  </si>
+  <si>
+    <t>CA-D3C2CTTY</t>
+  </si>
+  <si>
+    <t>CA-S09W1DXR</t>
+  </si>
+  <si>
+    <t>CA-8MNQOTTG</t>
+  </si>
+  <si>
+    <t>CA-S9U6PVKM</t>
+  </si>
+  <si>
+    <t>CA-5Z8ENPV4</t>
+  </si>
+  <si>
+    <t>CA-APNNZK7Z</t>
+  </si>
+  <si>
+    <t>CA-56JGWEH0</t>
+  </si>
+  <si>
+    <t>CA-WE09WPDM</t>
+  </si>
+  <si>
+    <t>CA-PWHIJA8W</t>
+  </si>
+  <si>
+    <t>CA-J2Z4MFMS</t>
+  </si>
+  <si>
+    <t>CA-Z5I9XXSS</t>
+  </si>
+  <si>
+    <t>CA-GW6WV6WG</t>
+  </si>
+  <si>
+    <t>CA-1FC7JFV1</t>
+  </si>
+  <si>
+    <t>CA-X86V5WWN</t>
+  </si>
+  <si>
+    <t>CA-JVSBAR9F</t>
+  </si>
+  <si>
+    <t>CA-YU2XYASP</t>
+  </si>
+  <si>
+    <t>CA-IYN0M3UU</t>
+  </si>
+  <si>
+    <t>CA-ARG1GITA</t>
+  </si>
+  <si>
+    <t>CA-V06JX9GN</t>
+  </si>
+  <si>
+    <t>CA-UX28GMFA</t>
+  </si>
+  <si>
+    <t>CA-VBJU0Y0H</t>
+  </si>
+  <si>
+    <t>CA-BBUARYR3</t>
+  </si>
+  <si>
+    <t>CA-ZU36TF6T</t>
+  </si>
+  <si>
+    <t>CA-5SQ1F4N6</t>
+  </si>
+  <si>
+    <t>CA-X62RSQZT</t>
+  </si>
+  <si>
+    <t>CA-OGP3WMX2</t>
+  </si>
+  <si>
+    <t>CA-RGQ0WW3E</t>
+  </si>
+  <si>
+    <t>CA-1PXX7DLO</t>
+  </si>
+  <si>
+    <t>CA-5IGD0XJW</t>
+  </si>
+  <si>
+    <t>CA-NO8FHLOU</t>
+  </si>
+  <si>
+    <t>CA-ON2630KU</t>
+  </si>
+  <si>
+    <t>CA-IZYYEIJ1</t>
+  </si>
+  <si>
+    <t>CA-74638ZIJ</t>
+  </si>
+  <si>
+    <t>CA-6N4VDY3I</t>
+  </si>
+  <si>
+    <t>CA-6EW65BVH</t>
+  </si>
+  <si>
+    <t>CA-J1KB6O4W</t>
+  </si>
+  <si>
+    <t>CA-MQ2XF14H</t>
+  </si>
+  <si>
+    <t>CA-3ZJ2WNMM</t>
+  </si>
+  <si>
+    <t>CA-OU4IVSJO</t>
+  </si>
+  <si>
+    <t>CA-828UK6H3</t>
+  </si>
+  <si>
+    <t>CA-0MF79QFX</t>
+  </si>
+  <si>
+    <t>CA-8ZFIV80G</t>
+  </si>
+  <si>
+    <t>CA-BF84MZ4W</t>
+  </si>
+  <si>
+    <t>CA-QWSBKME0</t>
+  </si>
+  <si>
+    <t>CA-SFBSI6JG</t>
+  </si>
+  <si>
+    <t>CA-IW2TQS21</t>
+  </si>
+  <si>
+    <t>CA-SDUWIUK1</t>
+  </si>
+  <si>
+    <t>CA-1ZTC9HLE</t>
+  </si>
+  <si>
+    <t>CA-IBPKH3D3</t>
+  </si>
+  <si>
+    <t>CA-JJMNKXIF</t>
+  </si>
+  <si>
+    <t>CA-XSPTRJE9</t>
+  </si>
+  <si>
+    <t>CA-X57QTG7Y</t>
+  </si>
+  <si>
+    <t>CA-ZF2KL1IF</t>
+  </si>
+  <si>
+    <t>CA-VTYJM9KZ</t>
+  </si>
+  <si>
+    <t>CA-7KWTB9OE</t>
+  </si>
+  <si>
+    <t>CA-TVB4N7XC</t>
+  </si>
+  <si>
+    <t>CA-HW2KSVCO</t>
+  </si>
+  <si>
+    <t>CA-VL1S7X5N</t>
+  </si>
+  <si>
+    <t>CA-21WE05N0</t>
+  </si>
+  <si>
+    <t>CA-NTG59KDB</t>
+  </si>
+  <si>
+    <t>CA-QRG5M5CZ</t>
+  </si>
+  <si>
+    <t>CA-GYLSQ0DB</t>
+  </si>
+  <si>
+    <t>CA-VEN97Z30</t>
+  </si>
+  <si>
+    <t>CA-DZQUWEVD</t>
+  </si>
+  <si>
+    <t>CA-ZMFX1DIE</t>
+  </si>
+  <si>
+    <t>CA-1ZCYJVBO</t>
+  </si>
+  <si>
+    <t>CA-GJYU4OO1</t>
+  </si>
+  <si>
+    <t>CA-02RV5VOC</t>
+  </si>
+  <si>
+    <t>CA-FN6J2VO7</t>
+  </si>
+  <si>
+    <t>CA-K34K6I3U</t>
+  </si>
+  <si>
+    <t>CA-JO4D451O</t>
+  </si>
+  <si>
+    <t>CA-5QY3YWPA</t>
+  </si>
+  <si>
+    <t>CA-PS6PFVLD</t>
+  </si>
+  <si>
+    <t>CA-CSO3W1FT</t>
+  </si>
+  <si>
+    <t>CA-TAV7LMMN</t>
+  </si>
+  <si>
+    <t>CA-YY6UT4P8</t>
+  </si>
+  <si>
+    <t>CA-F94SW5U2</t>
+  </si>
+  <si>
+    <t>CA-PRSVC6JX</t>
+  </si>
+  <si>
+    <t>CA-ZIAC9VGL</t>
+  </si>
+  <si>
+    <t>CA-WQHYPJEL</t>
+  </si>
+  <si>
+    <t>CA-IW69T6JQ</t>
+  </si>
+  <si>
+    <t>CA-9EUYFKN0</t>
+  </si>
+  <si>
+    <t>CA-V0C5YY5K</t>
+  </si>
+  <si>
+    <t>CA-ZHU33B0S</t>
+  </si>
+  <si>
+    <t>CA-7Y9ZBC8A</t>
+  </si>
+  <si>
+    <t>CA-V00XZF67</t>
+  </si>
+  <si>
+    <t>CA-CL6Z0ITR</t>
+  </si>
+  <si>
+    <t>CA-LUXZJA0T</t>
+  </si>
+  <si>
+    <t>CA-9A6F9OXP</t>
+  </si>
+  <si>
+    <t>CA-KYBBB07N</t>
+  </si>
+  <si>
+    <t>CA-T0NC37L4</t>
+  </si>
+  <si>
+    <t>CA-H7174FRF</t>
+  </si>
+  <si>
+    <t>CA-PQB1L03U</t>
+  </si>
+  <si>
+    <t>CA-WBS0B4BD</t>
+  </si>
+  <si>
+    <t>CA-0RJ3FYE5</t>
+  </si>
+  <si>
+    <t>CA-1L8KJUUX</t>
+  </si>
+  <si>
+    <t>CA-Z16WDBIU</t>
+  </si>
+  <si>
+    <t>CA-POWJWSIJ</t>
+  </si>
+  <si>
+    <t>CA-STZD9Q4W</t>
+  </si>
+  <si>
+    <t>CA-J7TZP5SW</t>
+  </si>
+  <si>
+    <t>CA-CNWUR2B7</t>
+  </si>
+  <si>
+    <t>CA-7FG6SLP1</t>
+  </si>
+  <si>
+    <t>CA-2OZEWYKL</t>
+  </si>
+  <si>
+    <t>CA-BL02AM4H</t>
+  </si>
+  <si>
+    <t>CA-JBAE6AZ5</t>
+  </si>
+  <si>
+    <t>CA-TIMOKVDP</t>
+  </si>
+  <si>
+    <t>CA-0JDMQ5K8</t>
+  </si>
+  <si>
+    <t>CA-8PE79CU9</t>
+  </si>
+  <si>
+    <t>CA-M2Q4BECH</t>
+  </si>
+  <si>
+    <t>CA-9EJT67IX</t>
+  </si>
+  <si>
+    <t>CA-R2YMVDW6</t>
+  </si>
+  <si>
+    <t>CA-K5VMOD7J</t>
+  </si>
+  <si>
+    <t>CA-HN644C4T</t>
+  </si>
+  <si>
+    <t>CA-BM9F0WR0</t>
+  </si>
+  <si>
+    <t>CA-AW60FN77</t>
+  </si>
+  <si>
+    <t>CA-T5OZ62QM</t>
+  </si>
+  <si>
+    <t>CA-TVZYUB4D</t>
+  </si>
+  <si>
+    <t>CA-KLLN3QPZ</t>
+  </si>
+  <si>
+    <t>CA-XQ69THTO</t>
+  </si>
+  <si>
+    <t>CA-PI35V0F7</t>
+  </si>
+  <si>
+    <t>CA-FZQA6NGR</t>
+  </si>
+  <si>
+    <t>CA-0306BIP0</t>
+  </si>
+  <si>
+    <t>CA-O0X14KBD</t>
+  </si>
+  <si>
+    <t>CA-UAJYEE1Q</t>
+  </si>
+  <si>
+    <t>CA-OQGZJEOC</t>
+  </si>
+  <si>
+    <t>CA-DV6FLWE5</t>
+  </si>
+  <si>
+    <t>CA-WX1NIFTY</t>
+  </si>
+  <si>
+    <t>CA-SINP7G06</t>
+  </si>
+  <si>
+    <t>CA-5NVZT6X1</t>
+  </si>
+  <si>
+    <t>CA-JAFXZZN1</t>
+  </si>
+  <si>
+    <t>CA-OQHL7IJH</t>
+  </si>
+  <si>
+    <t>CA-QKP3PFII</t>
+  </si>
+  <si>
+    <t>CA-QTTU0FYP</t>
+  </si>
+  <si>
+    <t>CA-JD9NE1GJ</t>
+  </si>
+  <si>
+    <t>CA-P3PP5ME3</t>
+  </si>
+  <si>
+    <t>CA-ATCO064H</t>
+  </si>
+  <si>
+    <t>CA-34BL7PBO</t>
+  </si>
+  <si>
+    <t>CA-R69DX4MY</t>
+  </si>
+  <si>
+    <t>CA-4XT8K1KF</t>
+  </si>
+  <si>
+    <t>CA-4QC4DODS</t>
+  </si>
+  <si>
+    <t>CA-V35NN729</t>
+  </si>
+  <si>
+    <t>CA-LWTYXIPM</t>
+  </si>
+  <si>
+    <t>CA-BJY8F4T4</t>
+  </si>
+  <si>
+    <t>CA-3YI4HHIS</t>
+  </si>
+  <si>
+    <t>CA-XM258D1C</t>
+  </si>
+  <si>
+    <t>CA-0WGDH9HB</t>
+  </si>
+  <si>
+    <t>CA-G6VVU1C9</t>
+  </si>
+  <si>
+    <t>CA-GQ6VCGFM</t>
+  </si>
+  <si>
+    <t>CA-D8YEBFHG</t>
+  </si>
+  <si>
+    <t>CA-X49VYWBW</t>
+  </si>
+  <si>
+    <t>CA-TGUVZ8R2</t>
+  </si>
+  <si>
+    <t>CA-G52KMMKJ</t>
+  </si>
+  <si>
+    <t>CA-2PTOYNHK</t>
+  </si>
+  <si>
+    <t>CA-F5U2X0GT</t>
+  </si>
+  <si>
+    <t>CA-JCCACY7W</t>
+  </si>
+  <si>
+    <t>CA-X5M9AWU5</t>
+  </si>
+  <si>
+    <t>CA-A020G6BH</t>
+  </si>
+  <si>
+    <t>CA-B5AMNBY7</t>
+  </si>
+  <si>
+    <t>CA-VGJHXGGZ</t>
+  </si>
+  <si>
+    <t>CA-3HXEEWXA</t>
+  </si>
+  <si>
+    <t>CA-QX4Q4VQT</t>
+  </si>
+  <si>
+    <t>CA-05O10LQ2</t>
+  </si>
+  <si>
+    <t>CA-62Q1OV7F</t>
+  </si>
+  <si>
+    <t>CA-JE6OEV01</t>
+  </si>
+  <si>
+    <t>CA-1OZHC87H</t>
+  </si>
+  <si>
+    <t>CA-ESZUX7VZ</t>
+  </si>
+  <si>
+    <t>CA-3783HH3I</t>
+  </si>
+  <si>
+    <t>CA-43ZPVFHF</t>
+  </si>
+  <si>
+    <t>CA-9P3Y480U</t>
+  </si>
+  <si>
+    <t>CA-4J1UADAZ</t>
+  </si>
+  <si>
+    <t>CA-0H15QY81</t>
+  </si>
+  <si>
+    <t>CA-TLQP0ILA</t>
+  </si>
+  <si>
+    <t>CA-2TVOEVZM</t>
+  </si>
+  <si>
+    <t>CA-UOVMXJK7</t>
+  </si>
+  <si>
+    <t>CA-4UIYQQDX</t>
+  </si>
+  <si>
+    <t>CA-VQTSZ4K6</t>
+  </si>
+  <si>
+    <t>CA-CMNCCXVE</t>
+  </si>
+  <si>
+    <t>CA-BUBY848G</t>
+  </si>
+  <si>
+    <t>CA-J0W3O8TJ</t>
+  </si>
+  <si>
+    <t>CA-2O5LJZZG</t>
+  </si>
+  <si>
+    <t>CA-5KNQL40Z</t>
+  </si>
+  <si>
+    <t>CA-T9BN2ZZ7</t>
+  </si>
+  <si>
+    <t>CA-IIY6MF1R</t>
+  </si>
+  <si>
+    <t>CA-EEESYJ3L</t>
+  </si>
+  <si>
+    <t>CA-JP65V0GI</t>
+  </si>
+  <si>
+    <t>CA-MIW7VF6V</t>
+  </si>
+  <si>
+    <t>CA-FY9O5TH6</t>
+  </si>
+  <si>
+    <t>CA-C2HTKREG</t>
+  </si>
+  <si>
+    <t>CA-5SVMDO9C</t>
+  </si>
+  <si>
+    <t>CA-5TPU2O1V</t>
+  </si>
+  <si>
+    <t>CA-YSLAJNXU</t>
+  </si>
+  <si>
+    <t>CA-UHH2992L</t>
+  </si>
+  <si>
+    <t>CA-AVRGJG3H</t>
+  </si>
+  <si>
+    <t>CA-7MRLHKA3</t>
+  </si>
+  <si>
+    <t>CA-3GPRSOX3</t>
+  </si>
+  <si>
+    <t>CA-H0K5MYR6</t>
+  </si>
+  <si>
+    <t>CA-IEVXQV36</t>
+  </si>
+  <si>
+    <t>CA-RU8J4W1S</t>
+  </si>
+  <si>
+    <t>CA-TEWCGUIR</t>
+  </si>
+  <si>
+    <t>CA-YAHLZ73T</t>
+  </si>
+  <si>
+    <t>CA-7C49DJOG</t>
+  </si>
+  <si>
+    <t>CA-6VF76XN3</t>
+  </si>
+  <si>
+    <t>CA-UD9NJD5R</t>
+  </si>
+  <si>
+    <t>CA-UCIQXZSF</t>
+  </si>
+  <si>
+    <t>CA-6G4ZYWWV</t>
+  </si>
+  <si>
+    <t>CA-VOEVK0Y2</t>
+  </si>
+  <si>
+    <t>CA-D7LBL4EF</t>
+  </si>
+  <si>
+    <t>CA-5ILLVXYI</t>
+  </si>
+  <si>
+    <t>CA-2QHQ4TI6</t>
+  </si>
+  <si>
+    <t>CA-GN1ZZ5LI</t>
+  </si>
+  <si>
+    <t>CA-D81QN92O</t>
+  </si>
+  <si>
+    <t>CA-8O5WD6Q0</t>
+  </si>
+  <si>
+    <t>CA-L3J5FVQH</t>
+  </si>
+  <si>
+    <t>CA-O5LDOYZN</t>
+  </si>
+  <si>
+    <t>CA-EG5VJ2LN</t>
+  </si>
+  <si>
+    <t>CA-LQK04A7U</t>
+  </si>
+  <si>
+    <t>CA-9PRQL66Q</t>
+  </si>
+  <si>
+    <t>CA-6R7JDZ1L</t>
+  </si>
+  <si>
+    <t>CA-76RL0C42</t>
+  </si>
+  <si>
+    <t>CA-S8V8QMVV</t>
+  </si>
+  <si>
+    <t>CA-GIUPPYSP</t>
+  </si>
+  <si>
+    <t>CA-JH9RLUVJ</t>
+  </si>
+  <si>
+    <t>CA-ZRSOPHSG</t>
+  </si>
+  <si>
+    <t>CA-LPZ407DR</t>
+  </si>
+  <si>
+    <t>CA-7QXB9CDB</t>
+  </si>
+  <si>
+    <t>CA-2R0ISF7F</t>
+  </si>
+  <si>
+    <t>CA-VU1DGOLN</t>
+  </si>
+  <si>
+    <t>CA-UJ8E8YWV</t>
+  </si>
+  <si>
+    <t>CA-VK79TDS1</t>
+  </si>
+  <si>
+    <t>CA-W6YPH8FY</t>
+  </si>
+  <si>
+    <t>CA-QMKVWGI5</t>
+  </si>
+  <si>
+    <t>CA-FXVWK0X8</t>
+  </si>
+  <si>
+    <t>CA-T4SWXOTW</t>
+  </si>
+  <si>
+    <t>CA-SLL1BC7R</t>
+  </si>
+  <si>
+    <t>CA-LIMOW4LV</t>
+  </si>
+  <si>
+    <t>CA-NDNJSS78</t>
+  </si>
+  <si>
+    <t>CA-UC21VJV9</t>
+  </si>
+  <si>
+    <t>CA-WEM0PMYH</t>
+  </si>
+  <si>
+    <t>CA-37AKT807</t>
+  </si>
+  <si>
+    <t>CA-9ZYNFBFC</t>
+  </si>
+  <si>
+    <t>CA-4DI8Z0FT</t>
+  </si>
+  <si>
+    <t>CA-X2PSBLOX</t>
+  </si>
+  <si>
+    <t>CA-EH2LQHX7</t>
+  </si>
+  <si>
+    <t>CA-P6RTWU0B</t>
+  </si>
+  <si>
+    <t>CA-QB509JFM</t>
+  </si>
+  <si>
+    <t>CA-YQIFKRGI</t>
+  </si>
+  <si>
+    <t>CA-J8FCQYSU</t>
+  </si>
+  <si>
+    <t>CA-V73PBF2F</t>
+  </si>
+  <si>
+    <t>CA-BQ69BJ9R</t>
+  </si>
+  <si>
+    <t>CA-X1Q5MB5F</t>
+  </si>
+  <si>
+    <t>CA-I2I8H2YF</t>
+  </si>
+  <si>
+    <t>CA-H8S5Z75H</t>
+  </si>
+  <si>
+    <t>CA-BGR37W0H</t>
+  </si>
+  <si>
+    <t>CA-N20JQ0RD</t>
+  </si>
+  <si>
+    <t>CA-339DO7D1</t>
+  </si>
+  <si>
+    <t>CA-A18NRC4J</t>
+  </si>
+  <si>
+    <t>CA-TF6YZ5DF</t>
+  </si>
+  <si>
+    <t>CA-SGDLPE4B</t>
+  </si>
+  <si>
+    <t>CA-M1LGZNBS</t>
+  </si>
+  <si>
+    <t>CA-WZURHUBN</t>
+  </si>
+  <si>
+    <t>CA-82NNYOD2</t>
+  </si>
+  <si>
+    <t>CA-2V48HZIB</t>
+  </si>
+  <si>
+    <t>CA-909X8SCH</t>
+  </si>
+  <si>
+    <t>CA-PK8IH402</t>
+  </si>
+  <si>
+    <t>CA-AIY6EIAO</t>
+  </si>
+  <si>
+    <t>CA-532ZZU07</t>
+  </si>
+  <si>
+    <t>CA-T4EYMU9K</t>
+  </si>
+  <si>
+    <t>CA-NEDU7FS6</t>
+  </si>
+  <si>
+    <t>CA-V1H77ZQ2</t>
+  </si>
+  <si>
+    <t>CA-Z6JXKQQQ</t>
+  </si>
+  <si>
+    <t>CA-NMOS8G2Z</t>
+  </si>
+  <si>
+    <t>CA-UJ1E8860</t>
+  </si>
+  <si>
+    <t>CA-L8UFNV0M</t>
+  </si>
+  <si>
+    <t>CA-WOYCMUCA</t>
+  </si>
+  <si>
+    <t>CA-H5UI5XU7</t>
+  </si>
+  <si>
+    <t>CA-6PT6VSHV</t>
+  </si>
+  <si>
+    <t>CA-6Q0LWSU8</t>
+  </si>
+  <si>
+    <t>CA-8Y5JTNH0</t>
+  </si>
+  <si>
+    <t>CA-PC5GXP1K</t>
+  </si>
+  <si>
+    <t>CA-WRQU9A7N</t>
+  </si>
+  <si>
+    <t>CA-01GN4UUL</t>
+  </si>
+  <si>
+    <t>CA-WJY6O0N6</t>
+  </si>
+  <si>
+    <t>CA-E06TDQKS</t>
+  </si>
+  <si>
+    <t>CA-IFPQS4MU</t>
+  </si>
+  <si>
+    <t>CA-0OC582S9</t>
+  </si>
+  <si>
+    <t>CA-29E8KKCU</t>
+  </si>
+  <si>
+    <t>CA-2P49PXFQ</t>
+  </si>
+  <si>
+    <t>CA-U28F72JU</t>
+  </si>
+  <si>
+    <t>CA-2TPNZ4IH</t>
+  </si>
+  <si>
+    <t>CA-1GBROWKM</t>
+  </si>
+  <si>
+    <t>CA-VP180V2L</t>
+  </si>
+  <si>
+    <t>CA-4PQST11O</t>
+  </si>
+  <si>
+    <t>CA-UZE80SOB</t>
+  </si>
+  <si>
+    <t>CA-EHA9KDCD</t>
+  </si>
+  <si>
+    <t>CA-UVTUNE65</t>
+  </si>
+  <si>
+    <t>CA-NPWPKVM3</t>
+  </si>
+  <si>
+    <t>CA-4QQLRO50</t>
+  </si>
+  <si>
+    <t>CA-AAVEQDIR</t>
+  </si>
+  <si>
+    <t>CA-Z8NEEJHX</t>
+  </si>
+  <si>
+    <t>CA-S6FHNZJV</t>
+  </si>
+  <si>
+    <t>CA-SBEX1S9S</t>
+  </si>
+  <si>
+    <t>CA-CDXX2PFX</t>
+  </si>
+  <si>
+    <t>CA-3XQMB5HQ</t>
+  </si>
+  <si>
+    <t>CA-ZOFSBGLL</t>
+  </si>
+  <si>
+    <t>CA-P6VSZFMU</t>
+  </si>
+  <si>
+    <t>CA-10ON5HB6</t>
+  </si>
+  <si>
+    <t>CA-HQC9F9BH</t>
+  </si>
+  <si>
+    <t>CA-OXR4RDSG</t>
+  </si>
+  <si>
+    <t>CA-L3IRA0A1</t>
+  </si>
+  <si>
+    <t>CA-5CVDGHI4</t>
+  </si>
+  <si>
+    <t>CA-WKT9YVPE</t>
+  </si>
+  <si>
+    <t>CA-9XYKLW1E</t>
+  </si>
+  <si>
+    <t>CA-OMRXKITZ</t>
+  </si>
+  <si>
+    <t>CA-5F8PSRYM</t>
+  </si>
+  <si>
+    <t>CA-82V8A90Q</t>
+  </si>
+  <si>
+    <t>CA-I0L1KQMY</t>
+  </si>
+  <si>
+    <t>CA-YP3098IT</t>
+  </si>
+  <si>
+    <t>CA-1MEH3XUO</t>
+  </si>
+  <si>
+    <t>CA-GHH14097</t>
+  </si>
+  <si>
+    <t>CA-BJUZ5OP8</t>
+  </si>
+  <si>
+    <t>CA-O8DF3O7O</t>
+  </si>
+  <si>
+    <t>CA-U67YQZP7</t>
+  </si>
+  <si>
+    <t>CA-T1B3IMZW</t>
+  </si>
+  <si>
+    <t>CA-ZOX7OWJN</t>
+  </si>
+  <si>
+    <t>CA-KCFMDOJ2</t>
+  </si>
+  <si>
+    <t>CA-80RF6HTJ</t>
+  </si>
+  <si>
+    <t>CA-PVKOOIFS</t>
+  </si>
+  <si>
+    <t>CA-7KAANH73</t>
+  </si>
+  <si>
+    <t>CA-TWFPG1GJ</t>
+  </si>
+  <si>
+    <t>CA-JY29G7IV</t>
+  </si>
+  <si>
+    <t>CA-YIPKZ5ZN</t>
+  </si>
+  <si>
+    <t>CA-DKVPPL1Y</t>
+  </si>
+  <si>
+    <t>CA-5DXY98JE</t>
+  </si>
+  <si>
+    <t>CA-Z42F40F4</t>
+  </si>
+  <si>
+    <t>CA-16SJQ013</t>
+  </si>
+  <si>
+    <t>CA-94DIEUWM</t>
+  </si>
+  <si>
+    <t>CA-DLF19FZ2</t>
+  </si>
+  <si>
+    <t>CA-347056YL</t>
+  </si>
+  <si>
+    <t>CA-FMXCAUXR</t>
+  </si>
+  <si>
+    <t>CA-V2THOZ45</t>
+  </si>
+  <si>
+    <t>CA-BFGRIND7</t>
+  </si>
+  <si>
+    <t>CA-MGEGB5WT</t>
+  </si>
+  <si>
+    <t>CA-5LR5T6JT</t>
+  </si>
+  <si>
+    <t>CA-04UF5OBE</t>
+  </si>
+  <si>
+    <t>CA-742ENO2I</t>
+  </si>
+  <si>
+    <t>CA-BPN46EL1</t>
+  </si>
+  <si>
+    <t>CA-H2ZHKNTY</t>
+  </si>
+  <si>
+    <t>CA-ZKWH6RZJ</t>
+  </si>
+  <si>
+    <t>CA-8IH40VBL</t>
+  </si>
+  <si>
+    <t>CA-0DKOY8RM</t>
+  </si>
+  <si>
+    <t>CA-TE2JCFI4</t>
+  </si>
+  <si>
+    <t>CA-PK1F4YR7</t>
+  </si>
+  <si>
+    <t>CA-QLVERE9T</t>
+  </si>
+  <si>
+    <t>CA-MHMAMU6E</t>
+  </si>
+  <si>
+    <t>CA-JD7DCHVE</t>
+  </si>
+  <si>
+    <t>CA-VI4O1E7R</t>
+  </si>
+  <si>
+    <t>CA-9RIUVYXO</t>
+  </si>
+  <si>
+    <t>CA-0FB0AAN1</t>
+  </si>
+  <si>
+    <t>CA-MOLHK95F</t>
+  </si>
+  <si>
+    <t>CA-95SM3P3X</t>
+  </si>
+  <si>
+    <t>CA-JMTHM5GM</t>
+  </si>
+  <si>
+    <t>CA-G2YVPDU9</t>
+  </si>
+  <si>
+    <t>CA-RUE5BMVF</t>
+  </si>
+  <si>
+    <t>CA-JZU8KL10</t>
+  </si>
+  <si>
+    <t>CA-KA70BA2M</t>
+  </si>
+  <si>
+    <t>CA-T9A99X5T</t>
+  </si>
+  <si>
+    <t>CA-BHMS0VVD</t>
+  </si>
+  <si>
+    <t>CA-CLQ8ZUMK</t>
+  </si>
+  <si>
+    <t>CA-KGNXJQFX</t>
+  </si>
+  <si>
+    <t>CA-C9AP28BK</t>
   </si>
 </sst>
 </file>
@@ -554,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +1764,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TrainingTestNG\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F838C5A6-47C7-4EE6-90B9-2EC72EE17E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464EE941-3B88-4BAD-BEB2-CAA94BB8E2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="4200" windowWidth="21555" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -112,79 +112,16 @@
     <t>cgx</t>
   </si>
   <si>
-    <t>CA-BO7XJLLM</t>
-  </si>
-  <si>
-    <t>1FT5RD6GH91</t>
-  </si>
-  <si>
-    <t>CA-JK6LDUQH</t>
-  </si>
-  <si>
-    <t>CA-TJW44LFD</t>
-  </si>
-  <si>
-    <t>CA-RRHVHQ3U</t>
-  </si>
-  <si>
-    <t>CA-ITFVC8GN</t>
-  </si>
-  <si>
-    <t>CA-LT503RGJ</t>
-  </si>
-  <si>
-    <t>CA-3FZASFHT</t>
-  </si>
-  <si>
-    <t>CA-0GPC0BKS</t>
-  </si>
-  <si>
-    <t>CA-G42A2DPI</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>CA-OT1576VS</t>
-  </si>
-  <si>
-    <t>CA-B1BZ60IM</t>
-  </si>
-  <si>
-    <t>CA-YV0L5HBH</t>
-  </si>
-  <si>
-    <t>CA-VHR3K5N1</t>
-  </si>
-  <si>
-    <t>CA-G7PDYCLX</t>
-  </si>
-  <si>
-    <t>CA-7AH5Z2PZ</t>
-  </si>
-  <si>
-    <t>CA-ATEBGOC5</t>
-  </si>
-  <si>
-    <t>CA-704YI37H</t>
-  </si>
-  <si>
-    <t>CA-9BUIKRV4</t>
-  </si>
-  <si>
-    <t>CA-IULE2W7V</t>
-  </si>
-  <si>
-    <t>CA-II7V08WU</t>
-  </si>
-  <si>
-    <t>CA-ZMNVET9H</t>
-  </si>
-  <si>
-    <t>CA-XBUXCVRT</t>
-  </si>
-  <si>
-    <t>CA-KPJ32ZF7</t>
+    <t>CA-105HD3KX</t>
+  </si>
+  <si>
+    <t>2FT5RD6GH91</t>
+  </si>
+  <si>
+    <t>CA-IW7WF8NQ</t>
+  </si>
+  <si>
+    <t>CA-CH47Q9GU</t>
   </si>
 </sst>
 </file>
@@ -554,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +546,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
